--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_1_village_202212</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village V1.2</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_1_village_202212_v1_2</t>
   </si>
 </sst>
 </file>
@@ -428,12 +428,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,13 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -501,25 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,17 +508,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,6 +544,59 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,37 +616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -614,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,13 +657,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +699,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,19 +741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,25 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,25 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,67 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +893,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,174 +947,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1150,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1177,11 +1193,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1464,7 +1482,7 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3158,8 +3176,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5037037037037" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
@@ -417,10 +417,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village V1.2</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_1_village_202212_v1_2</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village V1</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_1_village_202212_v1</t>
   </si>
 </sst>
 </file>
@@ -3182,7 +3182,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5037037037037" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="49.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_1_village_202212.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,10 @@
     <t>select_one csps_list</t>
   </si>
   <si>
-    <t>c_csps</t>
-  </si>
-  <si>
-    <t>CSPS</t>
+    <t>c_formation_sanitaire</t>
+  </si>
+  <si>
+    <t>Formation sanitaire</t>
   </si>
   <si>
     <t>ds_list = ${c_district}</t>
@@ -114,7 +114,7 @@
     <t>Noms des Sites sentinelles/contrôle</t>
   </si>
   <si>
-    <t>csps_list = ${c_csps}</t>
+    <t>csps_list = ${c_formation_sanitaire}</t>
   </si>
   <si>
     <t>select_one site_list</t>
@@ -291,7 +291,7 @@
     <t>CM Saaba</t>
   </si>
   <si>
-    <t>Zanga</t>
+    <t>Peele</t>
   </si>
   <si>
     <t>Koulpissi</t>
@@ -366,7 +366,7 @@
     <t>SAA</t>
   </si>
   <si>
-    <t>ZAN</t>
+    <t>PEE</t>
   </si>
   <si>
     <t>KOU</t>
@@ -417,10 +417,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village V1</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_1_village_202212_v1</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 1. Formulaire Village V2</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_1_village_202212_v2</t>
   </si>
 </sst>
 </file>
@@ -428,10 +428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -479,6 +479,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -487,22 +495,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,26 +517,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,22 +542,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,29 +566,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,17 +580,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,6 +607,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -657,6 +657,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -669,13 +693,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,49 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,91 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,65 +860,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,8 +887,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,151 +933,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1487,7 +1487,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5037037037037" defaultRowHeight="14.25"/>
@@ -1640,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" ht="42.75" spans="1:13">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
@@ -1875,12 +1875,12 @@
   <sheetPr/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="$A57:$XFD71"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5037037037037" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3176,14 +3176,14 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5037037037037" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="49.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="30.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
